--- a/DateBase/orders/Dang Nguyen_2025-10-3.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-3.xlsx
@@ -695,6 +695,9 @@
       <c r="C31" t="str">
         <v>675_大丽花 黄桃子_undefined_undefined_5stems</v>
       </c>
+      <c r="F31" t="str">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -756,7 +759,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0920245614618531482652512354030221555151010155100</v>
+        <v>0920245614618531482652512354030221555151010155108</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-3.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-3.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -699,9 +699,604 @@
         <v>8</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>7</v>
+      </c>
+      <c r="C32" t="str">
+        <v>83_布拉格_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F32" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="str">
+        <v>594_绿毛球_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F33" t="str">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>535_雪果白_snow berry white_undefined_1bunch</v>
+      </c>
+      <c r="F34" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>713_雪果粉_snowberry pink_undefined_1bunch</v>
+      </c>
+      <c r="F35" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>244_繁星_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F36" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="str">
+        <v>787_菟葵粉铃铛_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F37" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>8</v>
+      </c>
+      <c r="C38" t="str">
+        <v>514_松虫草紫_scabiosa purple_undefined_1bunch</v>
+      </c>
+      <c r="F38" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="str">
+        <v>419_松虫草红_scabiosa watermelon_undefined_1bunch</v>
+      </c>
+      <c r="F39" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="str">
+        <v>734_乒乓菊红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F40" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="str">
+        <v>572_乒乓菊白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F41" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>9</v>
+      </c>
+      <c r="C42" t="str">
+        <v>594_绿毛球_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F42" t="str">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="str">
+        <v>512_松虫草粉_scabiosa pink_undefined_1bunch</v>
+      </c>
+      <c r="F43" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="str">
+        <v>420_松虫草QQ糖_scabiosa white pink_undefined_1bunch</v>
+      </c>
+      <c r="F44" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="str">
+        <v>418_松虫草白_scabiosa white_undefined_1bunch</v>
+      </c>
+      <c r="F45" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="str">
+        <v>421_松虫草黑色_scabiosa black_undefined_1bunch</v>
+      </c>
+      <c r="F46" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="str">
+        <v>733_芍药弗莱明_Fleming_undefined_10stems</v>
+      </c>
+      <c r="F47" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>10</v>
+      </c>
+      <c r="C48" t="str">
+        <v>401_大飞燕白色_delphinium white_undefined_1bunch</v>
+      </c>
+      <c r="F48" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="str">
+        <v>479_绿灵草_lepidium_undefined_1bunch</v>
+      </c>
+      <c r="F49" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="str">
+        <v>321_雪柳叶_Spiraea  leaves_undefined_1bunch</v>
+      </c>
+      <c r="F50" t="str">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" t="str">
+        <v>326_红继木_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F51" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" t="str">
+        <v>387_洋甘菊_Chamomile_undefined_1bunch</v>
+      </c>
+      <c r="F52" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>11</v>
+      </c>
+      <c r="C53" t="str">
+        <v>522_山归来绿_Smilax china_undefined_1bunch</v>
+      </c>
+      <c r="F53" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="str">
+        <v>688_山归来橙_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F54" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="str">
+        <v>320_雪柳花_Spiraea flower white_undefined_1bunch</v>
+      </c>
+      <c r="F55" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="str">
+        <v>439_九星叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F56" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="str">
+        <v>708_金边百合叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F57" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" xml:space="preserve">
+      <c r="C58" t="str" xml:space="preserve">
+        <v xml:space="preserve">508_风铃花白色_Canterbury Bells 
+white_undefined_1bunch</v>
+      </c>
+      <c r="F58" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" xml:space="preserve">
+      <c r="C59" t="str" xml:space="preserve">
+        <v xml:space="preserve">414_风铃花粉色_Canterbury Bells
+pink_undefined_1bunch</v>
+      </c>
+      <c r="F59" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" xml:space="preserve">
+      <c r="C60" t="str" xml:space="preserve">
+        <v xml:space="preserve">413_风铃花淡紫色_Canterbury Bells
+light purple_undefined_1bunch</v>
+      </c>
+      <c r="F60" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" xml:space="preserve">
+      <c r="C61" t="str" xml:space="preserve">
+        <v xml:space="preserve">510_翠珠白_Didiscus caeruleus 
+white_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F61" t="str">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" xml:space="preserve">
+      <c r="C62" t="str" xml:space="preserve">
+        <v xml:space="preserve">509_翠珠粉_Didiscus caeruleus
+pink_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F62" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" xml:space="preserve">
+      <c r="C63" t="str" xml:space="preserve">
+        <v xml:space="preserve">416_翠珠紫_Didiscus caeruleus
+blue_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F63" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="C64" t="str">
+        <v>354_桔叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F64" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" xml:space="preserve">
+      <c r="A65" t="str">
+        <v>12</v>
+      </c>
+      <c r="C65" t="str" xml:space="preserve">
+        <v xml:space="preserve">349_千层金绿_Melaleuca bracteata
+（dyed orange）_Melaleuca bracteata F.Muell._1bunch</v>
+      </c>
+      <c r="F65" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="C66" t="str">
+        <v>327_文竹_asparagus fern_undefined_1bunch</v>
+      </c>
+      <c r="F66" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="C67" t="str">
+        <v>445_冬青红_ilex_undefined_1bunch</v>
+      </c>
+      <c r="F67" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="C68" t="str">
+        <v>557_山茶花_camellia_undefined_1bunch</v>
+      </c>
+      <c r="F68" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="C69" t="str">
+        <v>595_玉兰叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F69" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="C70" t="str">
+        <v>356_绿枫叶山货_maple leaf small_undefined_1bunch</v>
+      </c>
+      <c r="F70" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="C71" t="str">
+        <v>328_卢荀草_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F71" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="C72" t="str">
+        <v>521_商陆_phytolacca acinosa _undefined_1bunch</v>
+      </c>
+      <c r="F72" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="C73" t="str">
+        <v>344_钢草_steal grass_Xanthorrhoea preissii Endl._1bunch</v>
+      </c>
+      <c r="F73" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="C74" t="str">
+        <v>684_百合女神_lily goddess_undefined_1bunch</v>
+      </c>
+      <c r="F74" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="C75" t="str">
+        <v>581_腊梅橙_wax orange_undefined_1bunch</v>
+      </c>
+      <c r="F75" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="C76" t="str">
+        <v>579_腊梅红_wax red_undefined_1bunch</v>
+      </c>
+      <c r="F76" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>13</v>
+      </c>
+      <c r="C77" t="str">
+        <v>462_五针松_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F77" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="C78" t="str">
+        <v>431_小米果_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F78" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" xml:space="preserve">
+      <c r="C79" t="str" xml:space="preserve">
+        <v xml:space="preserve">448_吊米 绿_hanging amaranthus
+green_undefined_1bunch</v>
+      </c>
+      <c r="F79" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="C80" t="str">
+        <v>574_迷你菊白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F80" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="C81" t="str">
+        <v>576_迷你菊紫_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F81" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="C82" t="str">
+        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
+      </c>
+      <c r="F82" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="C83" t="str">
+        <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
+      </c>
+      <c r="F83" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="C84" t="str">
+        <v>548_白星花_tweedia white_undefined_1bunch</v>
+      </c>
+      <c r="F84" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="C85" t="str">
+        <v>11_香槟洋桔梗_Champagne Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F85" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>14</v>
+      </c>
+      <c r="C86" t="str">
+        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F86" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="C87" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F87" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="C88" t="str">
+        <v>9_茶色洋桔梗_Tea Color Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F88" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="C89" t="str">
+        <v>2_粉洋桔梗_Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F89" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="C90" t="str">
+        <v>7_翠绿洋桔梗_Dark Green Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F90" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="C91" t="str">
+        <v>13_酒红洋桔梗_Burgundy Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F91" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="C92" t="str">
+        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F92" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="C93" t="str">
+        <v>5_绿洋桔梗_Light Green Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F93" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>15</v>
+      </c>
+      <c r="C94" t="str">
+        <v>504_大花葱_Allium _undefined_1bunch</v>
+      </c>
+      <c r="F94" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="C95" t="str">
+        <v>744_永生吊米深红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F95" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="C96" t="str">
+        <v>707_永生吊米白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F96" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="C97" t="str">
+        <v>743_永生吊米红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F97" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>16</v>
+      </c>
+      <c r="C98" t="str">
+        <v>590_洋牡丹粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F98" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="C99" t="str">
+        <v>588_洋牡丹黄_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F99" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="C100" t="str">
+        <v>586_洋牡丹白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F100" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="C101" t="str">
+        <v>585_洋牡丹红_undefined_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L101"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -759,7 +1354,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0920245614618531482652512354030221555151010155108</v>
+        <v>09202456146185314826525123540302215551510101551081013555510151010171515105420205520201510205101010540151010101555102052020255101010105151515152015555520530151552010200</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-3.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-3.xlsx
@@ -1293,6 +1293,9 @@
       <c r="C101" t="str">
         <v>585_洋牡丹红_undefined_undefined_1bunch</v>
       </c>
+      <c r="F101" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1354,7 +1357,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>09202456146185314826525123540302215551510101551081013555510151010171515105420205520201510205101010540151010101555102052020255101010105151515152015555520530151552010200</v>
+        <v>09202456146185314826525123540302215551510101551081013555510151010171515105420205520201510205101010540151010101555102052020255101010105151515152015555520530151552010201</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-3.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-3.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L101"/>
+  <dimension ref="A1:L128"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1294,12 +1294,240 @@
         <v>585_洋牡丹红_undefined_undefined_1bunch</v>
       </c>
       <c r="F101" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="C102" t="str">
+        <v>41_拉丝白_Spider White_Gerbera L._20stems</v>
+      </c>
+      <c r="F102" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="C103" t="str">
+        <v>47_拉丝玫红_Spider Dark Pink_Gerbera L._20stems</v>
+      </c>
+      <c r="F103" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="C104" t="str">
+        <v>83_布拉格_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F104" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>17</v>
+      </c>
+      <c r="C105" t="str">
+        <v>586_洋牡丹白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F105" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="C106" t="str">
+        <v>83_布拉格_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F106" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="C107" t="str">
+        <v>70_朝霞mini_undefined_Gerbera L._20stems</v>
+      </c>
+      <c r="F107" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
         <v>1</v>
+      </c>
+      <c r="C108" t="str">
+        <v>383_油画向日葵_sunflower black_undefined_1bunch</v>
+      </c>
+      <c r="F108" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="C109" t="str">
+        <v>478_绿芯向日葵_sunflower mini_undefined_1bunch</v>
+      </c>
+      <c r="F109" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="C110" t="str">
+        <v>144_高原红_High Plateau Red_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F110" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="C111" t="str">
+        <v>209_海洋之歌_Ocean Song_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F111" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="C112" t="str">
+        <v>274_仙子之吻_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F112" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="C113" t="str">
+        <v>625_多丁紫蝴蝶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F113" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="C114" t="str">
+        <v>623_粉太子_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F114" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="C115" t="str">
+        <v>602_康乃馨白_white_undefined_20stems</v>
+      </c>
+      <c r="F115" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="C116" t="str">
+        <v>631_吸色康乃馨宝蓝_tinted blue_undefined_20stems</v>
+      </c>
+      <c r="F116" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>2</v>
+      </c>
+      <c r="C117" t="str">
+        <v>320_雪柳花_Spiraea flower white_undefined_1bunch</v>
+      </c>
+      <c r="F117" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="C118" t="str">
+        <v>316_尤加利叶大叶_Eucalyptus Cinerea_undefined_1bunch</v>
+      </c>
+      <c r="F118" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="C119" t="str">
+        <v>816_山里红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F119" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="C120" t="str">
+        <v>577_腊梅白_wax white_undefined_1bunch</v>
+      </c>
+      <c r="F120" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="C121" t="str">
+        <v>576_迷你菊紫_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F121" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>3</v>
+      </c>
+      <c r="C122" t="str">
+        <v>47_拉丝玫红_Spider Dark Pink_Gerbera L._20stems</v>
+      </c>
+      <c r="F122" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="C123" t="str">
+        <v>70_朝霞mini_undefined_Gerbera L._20stems</v>
+      </c>
+      <c r="F123" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="C124" t="str">
+        <v>84_堪培拉_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F124" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="C125" t="str">
+        <v>454_蓝星花_tweedia blue_undefined_1bunch</v>
+      </c>
+      <c r="F125" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="C126" t="str">
+        <v>733_芍药弗莱明_Fleming_undefined_10stems</v>
+      </c>
+      <c r="F126" t="str">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="C127" t="str">
+        <v>439_九星叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F127" t="str">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="C128" t="str">
+        <v>344_钢草_steal grass_Xanthorrhoea preissii Endl._1bunch</v>
+      </c>
+      <c r="F128" t="str">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L101"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L128"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1357,7 +1585,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>09202456146185314826525123540302215551510101551081013555510151010171515105420205520201510205101010540151010101555102052020255101010105151515152015555520530151552010201</v>
+        <v>092024561461853148265251235403022155515101015510810135555101510101715151054202055202015102051010105401510101015551020520202551010101051515151520155555205301515520102010101047910556510101020102030101510101510304.54020</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-3.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-3.xlsx
@@ -1587,6 +1587,9 @@
       <c r="G2" t="str">
         <v>092024561461853148265251235403022155515101015510810135555101510101715151054202055202015102051010105401510101015551020520202551010101051515151520155555205301515520102010101047910556510101020102030101510101510304.54020</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
